--- a/Nitinol Test data.xlsx
+++ b/Nitinol Test data.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwickenden\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA968ED-39AB-45E3-973F-8FDA0EA43861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25875" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Strain</t>
   </si>
@@ -34,13 +40,39 @@
   <si>
     <t>Stress(Mpa)</t>
   </si>
+  <si>
+    <t>Finish(mm)</t>
+  </si>
+  <si>
+    <t>Start (mm)</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Wire slipped/ Possible break</t>
+  </si>
+  <si>
+    <t>Stress(Pa)</t>
+  </si>
+  <si>
+    <t>Mass (g)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,11 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,7 +140,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -487,7 +521,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -702,7 +735,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -820,7 +852,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -951,7 +982,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1023,6 +1053,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$18:$C$24</c:f>
@@ -1122,6 +1166,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Strain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1184,6 +1283,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Stress</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> MPa</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2955,7 +3114,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2985,7 +3150,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3002,20 +3173,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3295,24 +3472,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3397,10 +3577,13 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3514,8 +3697,217 @@
         <v>277</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>113</v>
+      </c>
+      <c r="E39">
+        <v>27711864</v>
+      </c>
+      <c r="F39">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>117</v>
+      </c>
+      <c r="D40">
+        <v>113</v>
+      </c>
+      <c r="E40" s="1">
+        <v>55423728</v>
+      </c>
+      <c r="F40">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>150</v>
+      </c>
+      <c r="C41">
+        <v>118</v>
+      </c>
+      <c r="D41">
+        <v>112</v>
+      </c>
+      <c r="E41">
+        <v>83135593</v>
+      </c>
+      <c r="F41">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>118</v>
+      </c>
+      <c r="D42">
+        <v>113</v>
+      </c>
+      <c r="E42">
+        <v>110847457</v>
+      </c>
+      <c r="F42">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>250</v>
+      </c>
+      <c r="C43">
+        <v>118</v>
+      </c>
+      <c r="D43">
+        <v>111</v>
+      </c>
+      <c r="E43">
+        <v>138559322</v>
+      </c>
+      <c r="F43">
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>300</v>
+      </c>
+      <c r="C44">
+        <v>117</v>
+      </c>
+      <c r="D44">
+        <v>110</v>
+      </c>
+      <c r="E44">
+        <v>166271186</v>
+      </c>
+      <c r="F44">
+        <v>5.9799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>350</v>
+      </c>
+      <c r="C45">
+        <v>118</v>
+      </c>
+      <c r="D45">
+        <v>109</v>
+      </c>
+      <c r="E45">
+        <v>193983050</v>
+      </c>
+      <c r="F45">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>400</v>
+      </c>
+      <c r="C46">
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>81</v>
+      </c>
+      <c r="E46">
+        <v>221694915</v>
+      </c>
+      <c r="F46">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47">
+        <v>450</v>
+      </c>
+      <c r="C47">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>249406779</v>
+      </c>
+      <c r="F47">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>500</v>
+      </c>
+      <c r="C48">
+        <v>85</v>
+      </c>
+      <c r="D48">
+        <v>81</v>
+      </c>
+      <c r="E48">
+        <v>277118644</v>
+      </c>
+      <c r="F48">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>550</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>